--- a/output/1Y_P63_1VAL-D.xlsx
+++ b/output/1Y_P63_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.3909</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>649.7346</v>
       </c>
-      <c r="G2" s="1">
-        <v>649.7346</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1512</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.3909</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1512</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>16.1095</v>
       </c>
+      <c r="E3" s="1">
+        <v>649.7346</v>
+      </c>
       <c r="F3" s="1">
         <v>620.7517</v>
       </c>
-      <c r="G3" s="1">
-        <v>1270.4863</v>
-      </c>
       <c r="H3" s="1">
-        <v>20360.8137</v>
+        <v>10412.6464</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.742</v>
+        <v>10412.6464</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.3909</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20360.8137</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0207</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>16.1222</v>
       </c>
+      <c r="E4" s="1">
+        <v>1270.4863</v>
+      </c>
       <c r="F4" s="1">
         <v>620.2627</v>
       </c>
-      <c r="G4" s="1">
-        <v>1890.7491</v>
-      </c>
       <c r="H4" s="1">
-        <v>30324.9678</v>
+        <v>20376.8218</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8667</v>
+        <v>20376.8218</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>15.742</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.2</v>
       </c>
-      <c r="L4" s="1">
-        <v>228.6875</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9771.3125</v>
+        <v>116.9522</v>
       </c>
       <c r="O4" s="1">
-        <v>228.6875</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30553.6554</v>
+        <v>-9883.0478</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0064</v>
+        <v>-0.0018</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.3453</v>
       </c>
+      <c r="E5" s="1">
+        <v>1890.7491</v>
+      </c>
       <c r="F5" s="1">
-        <v>577.99</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2468.739</v>
+        <v>577.2742</v>
       </c>
       <c r="H5" s="1">
-        <v>42598.8328</v>
+        <v>32625.4422</v>
       </c>
       <c r="I5" s="1">
-        <v>40025.4097</v>
+        <v>116.9522</v>
       </c>
       <c r="J5" s="1">
-        <v>16.2129</v>
+        <v>32742.3944</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30012.9947</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.8736</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10025.4097</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>203.2778</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>42802.1106</v>
+        <v>-10012.9947</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0554</v>
+        <v>0.0779</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.8769</v>
       </c>
+      <c r="E6" s="1">
+        <v>2468.0233</v>
+      </c>
       <c r="F6" s="1">
-        <v>560.8025</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3029.5415</v>
+        <v>560.1079999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>53877.9722</v>
+        <v>43891.8197</v>
       </c>
       <c r="I6" s="1">
-        <v>50050.8195</v>
+        <v>103.9575</v>
       </c>
       <c r="J6" s="1">
-        <v>16.5209</v>
+        <v>43995.7773</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40025.9894</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.2178</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10025.4097</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>177.8681</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>54055.8403</v>
+        <v>-10012.9947</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0237</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.8772</v>
       </c>
+      <c r="E7" s="1">
+        <v>3028.1313</v>
+      </c>
       <c r="F7" s="1">
-        <v>560.7931</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3590.3346</v>
+        <v>560.0986</v>
       </c>
       <c r="H7" s="1">
-        <v>63852.3053</v>
+        <v>53853.8009</v>
       </c>
       <c r="I7" s="1">
-        <v>60076.2292</v>
+        <v>90.9628</v>
       </c>
       <c r="J7" s="1">
-        <v>16.7328</v>
+        <v>53944.7637</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50038.9841</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.5247</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10025.4097</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>152.4584</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>64004.7637</v>
+        <v>-10012.9947</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0008</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>18.1874</v>
       </c>
+      <c r="E8" s="1">
+        <v>3588.2299</v>
+      </c>
       <c r="F8" s="1">
-        <v>551.2283</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4141.5629</v>
+        <v>550.5457</v>
       </c>
       <c r="H8" s="1">
-        <v>74933.7115</v>
+        <v>64922.2021</v>
       </c>
       <c r="I8" s="1">
-        <v>70101.63890000001</v>
+        <v>77.9682</v>
       </c>
       <c r="J8" s="1">
-        <v>16.9264</v>
+        <v>65000.1703</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60051.9788</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.7358</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10025.4097</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>127.0486</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>75060.7601</v>
+        <v>-10012.9947</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0143</v>
+        <v>0.0165</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.6132</v>
       </c>
+      <c r="E9" s="1">
+        <v>4138.7756</v>
+      </c>
       <c r="F9" s="1">
-        <v>569.1987</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4710.7615</v>
+        <v>568.4938</v>
       </c>
       <c r="H9" s="1">
-        <v>82541.02159999999</v>
+        <v>72518.79790000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80127.04859999999</v>
+        <v>64.9735</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0094</v>
+        <v>72583.7714</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70064.97349999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.9289</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10025.4097</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>101.6389</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82642.6605</v>
+        <v>-10012.9947</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0284</v>
+        <v>-0.0322</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.806</v>
       </c>
+      <c r="E10" s="1">
+        <v>4707.2694</v>
+      </c>
       <c r="F10" s="1">
-        <v>563.0355</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5273.797</v>
+        <v>562.3382</v>
       </c>
       <c r="H10" s="1">
-        <v>93418.4583</v>
+        <v>83383.1572</v>
       </c>
       <c r="I10" s="1">
-        <v>90152.4584</v>
+        <v>51.9788</v>
       </c>
       <c r="J10" s="1">
-        <v>17.0944</v>
+        <v>83435.136</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80077.9682</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.0116</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10025.4097</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>76.22920000000001</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93494.6874</v>
+        <v>-10012.9947</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0092</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>18.3524</v>
       </c>
+      <c r="E11" s="1">
+        <v>5269.6076</v>
+      </c>
       <c r="F11" s="1">
-        <v>546.2723999999999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5820.0694</v>
+        <v>545.5959</v>
       </c>
       <c r="H11" s="1">
-        <v>106258.1715</v>
+        <v>96208.2798</v>
       </c>
       <c r="I11" s="1">
-        <v>100177.8681</v>
+        <v>38.9841</v>
       </c>
       <c r="J11" s="1">
-        <v>17.2125</v>
+        <v>96247.26390000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90090.96279999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.0963</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10025.4097</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>50.8195</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106308.991</v>
+        <v>-10012.9947</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0272</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.7873</v>
       </c>
+      <c r="E12" s="1">
+        <v>5815.2035</v>
+      </c>
       <c r="F12" s="1">
-        <v>563.6274</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6383.6968</v>
+        <v>562.9294</v>
       </c>
       <c r="H12" s="1">
-        <v>112960.1538</v>
+        <v>102900.6079</v>
       </c>
       <c r="I12" s="1">
-        <v>110203.2778</v>
+        <v>25.9894</v>
       </c>
       <c r="J12" s="1">
-        <v>17.2632</v>
+        <v>102926.5973</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100103.9575</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.2142</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10025.4097</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>25.4097</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>112985.5635</v>
+        <v>-10012.9947</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0286</v>
+        <v>-0.0313</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>18.1269</v>
       </c>
+      <c r="E13" s="1">
+        <v>6378.133</v>
+      </c>
       <c r="F13" s="1">
-        <v>553.0681</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6936.7649</v>
+        <v>552.3832</v>
       </c>
       <c r="H13" s="1">
-        <v>125089.9879</v>
+        <v>115016.2338</v>
       </c>
       <c r="I13" s="1">
-        <v>120228.6875</v>
+        <v>12.9947</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3321</v>
+        <v>115029.2285</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110116.9522</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.2648</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10025.4097</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>125089.9879</v>
+        <v>-10012.9947</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0171</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.8817</v>
       </c>
+      <c r="E14" s="1">
+        <v>6930.5161</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6936.7649</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6378.133</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123286.9516</v>
       </c>
       <c r="I14" s="1">
-        <v>120228.6875</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3321</v>
+        <v>123286.9516</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110116.9522</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.8887</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>123398.1109</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>123398.1109</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123398.1109</v>
+        <v>113460.6072</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.08649999999999999</v>
+        <v>-0.0139</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.3909</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>649.7346</v>
       </c>
       <c r="G2" s="1">
-        <v>649.7346</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1512</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.3909</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1512</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>16.1095</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>649.7346</v>
       </c>
       <c r="F3" s="1">
         <v>598.2375</v>
       </c>
       <c r="G3" s="1">
-        <v>1247.972</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10412.6464</v>
       </c>
       <c r="I3" s="1">
-        <v>19637.3064</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.7354</v>
+        <v>10412.6464</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9637.306399999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.8327</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9637.306399999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>362.6936</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20362.6936</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0208</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>16.1222</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1247.972</v>
       </c>
       <c r="F4" s="1">
         <v>622.5154</v>
       </c>
       <c r="G4" s="1">
-        <v>1870.4874</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20015.7244</v>
       </c>
       <c r="I4" s="1">
-        <v>29673.6242</v>
+        <v>362.6936</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8641</v>
+        <v>20378.4181</v>
       </c>
       <c r="K4" s="1">
+        <v>19673.6242</v>
+      </c>
+      <c r="L4" s="1">
+        <v>15.7645</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.2</v>
       </c>
-      <c r="L4" s="1">
-        <v>224.635</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9811.6829</v>
+        <v>116.9522</v>
       </c>
       <c r="O4" s="1">
-        <v>551.0107</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30551.0107</v>
+        <v>-9919.365599999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0062</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.3453</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1870.4874</v>
       </c>
       <c r="F5" s="1">
         <v>447.6409</v>
       </c>
       <c r="G5" s="1">
-        <v>2318.1283</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>32275.8221</v>
       </c>
       <c r="I5" s="1">
-        <v>37438.0898</v>
+        <v>443.328</v>
       </c>
       <c r="J5" s="1">
-        <v>16.1501</v>
+        <v>32719.1501</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27438.0898</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.669</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-7764.4656</v>
       </c>
-      <c r="O5" s="1">
-        <v>2786.5451</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42786.5451</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0551</v>
+        <v>0.0771</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.8769</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2318.1283</v>
       </c>
       <c r="F6" s="1">
         <v>493.356</v>
       </c>
       <c r="G6" s="1">
-        <v>2811.4844</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41226.0581</v>
       </c>
       <c r="I6" s="1">
-        <v>46257.7659</v>
+        <v>2678.8624</v>
       </c>
       <c r="J6" s="1">
-        <v>16.4531</v>
+        <v>43904.9205</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36257.7659</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.641</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8819.675999999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>3966.8691</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53966.8691</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0224</v>
+        <v>0.0278</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,40 +1721,40 @@
         <v>17.8772</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2811.4844</v>
       </c>
       <c r="F7" s="1">
         <v>562.24</v>
       </c>
       <c r="G7" s="1">
-        <v>3373.7243</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>50000.8434</v>
       </c>
       <c r="I7" s="1">
-        <v>56309.0421</v>
+        <v>3859.1864</v>
       </c>
       <c r="J7" s="1">
-        <v>16.6905</v>
+        <v>53860.0298</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46309.0421</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.4714</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10051.2762</v>
-      </c>
-      <c r="O7" s="1">
-        <v>3915.5929</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63915.5929</v>
       </c>
       <c r="Q7" s="3">
         <v>-0.0008</v>
@@ -1783,43 +1774,43 @@
         <v>18.1874</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3373.7243</v>
       </c>
       <c r="F8" s="1">
         <v>495.1539</v>
       </c>
       <c r="G8" s="1">
-        <v>3868.8782</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>61041.1313</v>
       </c>
       <c r="I8" s="1">
-        <v>65314.6037</v>
+        <v>3807.9102</v>
       </c>
       <c r="J8" s="1">
-        <v>16.8821</v>
+        <v>64849.0415</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55314.6037</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.3957</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9005.5617</v>
       </c>
-      <c r="O8" s="1">
-        <v>4910.0312</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74910.0312</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0135</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.6132</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3868.8782</v>
       </c>
       <c r="F9" s="1">
         <v>696.8628</v>
       </c>
       <c r="G9" s="1">
-        <v>4565.741</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>67789.7099</v>
       </c>
       <c r="I9" s="1">
-        <v>77588.5871</v>
+        <v>4802.3485</v>
       </c>
       <c r="J9" s="1">
-        <v>16.9936</v>
+        <v>72592.05839999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67588.5871</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.4698</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12273.9834</v>
       </c>
-      <c r="O9" s="1">
-        <v>2636.0479</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82636.04790000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0268</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.806</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4565.741</v>
       </c>
       <c r="F10" s="1">
         <v>515.0722</v>
       </c>
       <c r="G10" s="1">
-        <v>5080.8132</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>80876.1657</v>
       </c>
       <c r="I10" s="1">
-        <v>86759.9626</v>
+        <v>2528.3651</v>
       </c>
       <c r="J10" s="1">
-        <v>17.076</v>
+        <v>83404.53079999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76759.9626</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.8122</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9171.3755</v>
       </c>
-      <c r="O10" s="1">
-        <v>3464.6724</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93464.6724</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0089</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>18.3524</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5080.8132</v>
       </c>
       <c r="F11" s="1">
         <v>396.478</v>
       </c>
       <c r="G11" s="1">
-        <v>5477.2912</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>92761.42200000001</v>
       </c>
       <c r="I11" s="1">
-        <v>94036.2853</v>
+        <v>3356.9896</v>
       </c>
       <c r="J11" s="1">
-        <v>17.1684</v>
+        <v>96118.41160000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>84036.2853</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.5399</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7276.3228</v>
       </c>
-      <c r="O11" s="1">
-        <v>6188.3496</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106188.3496</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0263</v>
+        <v>0.0291</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.7873</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5477.2912</v>
       </c>
       <c r="F12" s="1">
         <v>739.119</v>
       </c>
       <c r="G12" s="1">
-        <v>6216.4102</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>96921.21460000001</v>
       </c>
       <c r="I12" s="1">
-        <v>107183.2175</v>
+        <v>6080.6669</v>
       </c>
       <c r="J12" s="1">
-        <v>17.242</v>
+        <v>103001.8815</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>97183.2175</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7429</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13146.9321</v>
       </c>
-      <c r="O12" s="1">
-        <v>3041.4175</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113041.4175</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0271</v>
+        <v>-0.0294</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>18.1269</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6216.4102</v>
       </c>
       <c r="F13" s="1">
         <v>438.0935</v>
       </c>
       <c r="G13" s="1">
-        <v>6654.5037</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>112099.9034</v>
       </c>
       <c r="I13" s="1">
-        <v>115124.4949</v>
+        <v>2933.7348</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3002</v>
+        <v>115033.6381</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>105124.4949</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.9108</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7941.2774</v>
       </c>
-      <c r="O13" s="1">
-        <v>5100.1401</v>
-      </c>
-      <c r="P13" s="1">
-        <v>125100.1401</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0167</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.8817</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6654.5037</v>
       </c>
       <c r="F14" s="1">
         <v>-6654.5037</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118376.9665</v>
       </c>
       <c r="I14" s="1">
-        <v>115124.4949</v>
+        <v>4992.4573</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3002</v>
+        <v>123369.4239</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>105124.4949</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.7975</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>118376.9665</v>
       </c>
-      <c r="O14" s="1">
-        <v>123477.1066</v>
-      </c>
-      <c r="P14" s="1">
-        <v>123477.1066</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.08599999999999999</v>
+        <v>-0.0133</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.3909</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>649.7346</v>
       </c>
       <c r="G2" s="1">
-        <v>649.7346</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1512</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.3909</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1512</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>16.1095</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>649.7346</v>
       </c>
       <c r="F3" s="1">
         <v>601.3574</v>
       </c>
       <c r="G3" s="1">
-        <v>1251.092</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10412.6464</v>
       </c>
       <c r="I3" s="1">
-        <v>19687.5669</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.7363</v>
+        <v>10412.6464</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9687.5669</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.91</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9687.5669</v>
       </c>
-      <c r="O3" s="1">
-        <v>312.4331</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20362.4331</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0208</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>16.1222</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1251.092</v>
       </c>
       <c r="F4" s="1">
         <v>628.7635</v>
       </c>
       <c r="G4" s="1">
-        <v>1879.8555</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20065.7638</v>
       </c>
       <c r="I4" s="1">
-        <v>29824.6178</v>
+        <v>312.4331</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8654</v>
+        <v>20378.1969</v>
       </c>
       <c r="K4" s="1">
+        <v>19824.6178</v>
+      </c>
+      <c r="L4" s="1">
+        <v>15.8459</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.2</v>
       </c>
-      <c r="L4" s="1">
-        <v>225.1966</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9911.854300000001</v>
+        <v>116.9522</v>
       </c>
       <c r="O4" s="1">
-        <v>400.5788</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30550.8288</v>
+        <v>-10020.0986</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0062</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.3453</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1879.8555</v>
       </c>
       <c r="F5" s="1">
         <v>455.7169</v>
       </c>
       <c r="G5" s="1">
-        <v>2335.5723</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>32437.4702</v>
       </c>
       <c r="I5" s="1">
-        <v>37729.1634</v>
+        <v>292.3344</v>
       </c>
       <c r="J5" s="1">
-        <v>16.1541</v>
+        <v>32729.8046</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27729.1634</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.7507</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-7904.5456</v>
       </c>
-      <c r="O5" s="1">
-        <v>2496.0332</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42797.0344</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0554</v>
+        <v>0.0774</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.8769</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2335.5723</v>
       </c>
       <c r="F6" s="1">
         <v>504.1678</v>
       </c>
       <c r="G6" s="1">
-        <v>2839.7401</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41536.2855</v>
       </c>
       <c r="I6" s="1">
-        <v>46742.1205</v>
+        <v>2387.7888</v>
       </c>
       <c r="J6" s="1">
-        <v>16.46</v>
+        <v>43924.0743</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36742.1205</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.7315</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9012.957200000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>3483.076</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53985.5823</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0225</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.8772</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2839.7401</v>
       </c>
       <c r="F7" s="1">
         <v>576.4379</v>
       </c>
       <c r="G7" s="1">
-        <v>3416.1781</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>50503.3582</v>
       </c>
       <c r="I7" s="1">
-        <v>57047.217</v>
+        <v>3374.8317</v>
       </c>
       <c r="J7" s="1">
-        <v>16.6991</v>
+        <v>53878.1899</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47047.217</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.5674</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10305.0964</v>
       </c>
-      <c r="O7" s="1">
-        <v>3177.9796</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63932.9984</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0008</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>18.1874</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3416.1781</v>
       </c>
       <c r="F8" s="1">
         <v>511.2193</v>
       </c>
       <c r="G8" s="1">
-        <v>3927.3974</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>61809.2513</v>
       </c>
       <c r="I8" s="1">
-        <v>66344.9675</v>
+        <v>3069.7353</v>
       </c>
       <c r="J8" s="1">
-        <v>16.8929</v>
+        <v>64878.9866</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56344.9675</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.4936</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9297.7505</v>
       </c>
-      <c r="O8" s="1">
-        <v>3880.2291</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74939.023</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0136</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.6132</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3927.3974</v>
       </c>
       <c r="F9" s="1">
         <v>719.048</v>
       </c>
       <c r="G9" s="1">
-        <v>4646.4454</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>68815.0717</v>
       </c>
       <c r="I9" s="1">
-        <v>79009.7046</v>
+        <v>3771.9847</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0043</v>
+        <v>72587.05650000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69009.7046</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.5714</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12664.7371</v>
       </c>
-      <c r="O9" s="1">
-        <v>1215.492</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82629.57980000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0272</v>
+        <v>-0.0306</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.806</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4646.4454</v>
       </c>
       <c r="F10" s="1">
         <v>537.1784</v>
       </c>
       <c r="G10" s="1">
-        <v>5183.6239</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>82305.74069999999</v>
       </c>
       <c r="I10" s="1">
-        <v>88574.7037</v>
+        <v>1107.2477</v>
       </c>
       <c r="J10" s="1">
-        <v>17.0874</v>
+        <v>83412.9884</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78574.7037</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.9107</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9564.999100000001</v>
       </c>
-      <c r="O10" s="1">
-        <v>1650.4929</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93471.6511</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0091</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>18.3524</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5183.6239</v>
       </c>
       <c r="F11" s="1">
         <v>418.564</v>
       </c>
       <c r="G11" s="1">
-        <v>5602.1879</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>94638.45789999999</v>
       </c>
       <c r="I11" s="1">
-        <v>96256.3572</v>
+        <v>1542.2485</v>
       </c>
       <c r="J11" s="1">
-        <v>17.1819</v>
+        <v>96180.7064</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86256.3572</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.6402</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7681.6535</v>
       </c>
-      <c r="O11" s="1">
-        <v>3968.8394</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106249.1034</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0268</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.7873</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5602.1879</v>
       </c>
       <c r="F12" s="1">
         <v>771.9872</v>
       </c>
       <c r="G12" s="1">
-        <v>6374.1751</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>99131.2743</v>
       </c>
       <c r="I12" s="1">
-        <v>109987.9255</v>
+        <v>3860.595</v>
       </c>
       <c r="J12" s="1">
-        <v>17.2552</v>
+        <v>102991.8693</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99987.9255</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.848</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13731.5683</v>
       </c>
-      <c r="O12" s="1">
-        <v>237.271</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113028.9364</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0277</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>18.1269</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6374.1751</v>
       </c>
       <c r="F13" s="1">
         <v>466.4121</v>
       </c>
       <c r="G13" s="1">
-        <v>6840.5871</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>114944.8617</v>
       </c>
       <c r="I13" s="1">
-        <v>118442.5303</v>
+        <v>129.0267</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3147</v>
+        <v>115073.8884</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>108442.5303</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0128</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-8454.6047</v>
       </c>
-      <c r="O13" s="1">
-        <v>1782.6663</v>
-      </c>
-      <c r="P13" s="1">
-        <v>125138.29</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0171</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.8817</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6840.5871</v>
       </c>
       <c r="F14" s="1">
         <v>-6840.5871</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121687.2045</v>
       </c>
       <c r="I14" s="1">
-        <v>118442.5303</v>
+        <v>1674.422</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3147</v>
+        <v>123361.6265</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>108442.5303</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.8528</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>121687.2045</v>
       </c>
-      <c r="O14" s="1">
-        <v>123469.8708</v>
-      </c>
-      <c r="P14" s="1">
-        <v>123469.8708</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0863</v>
+        <v>-0.0137</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.3909</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>649.7346</v>
       </c>
       <c r="G2" s="1">
-        <v>649.7346</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1512</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.3909</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1512</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>16.1095</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>649.7346</v>
       </c>
       <c r="F3" s="1">
         <v>604.4773</v>
       </c>
       <c r="G3" s="1">
-        <v>1254.2119</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10412.6464</v>
       </c>
       <c r="I3" s="1">
-        <v>19737.8274</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.7372</v>
+        <v>10412.6464</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9737.8274</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.9874</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9737.8274</v>
       </c>
-      <c r="O3" s="1">
-        <v>262.1726</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20362.1726</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0208</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>16.1222</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1254.2119</v>
       </c>
       <c r="F4" s="1">
         <v>635.0428000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1889.2547</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20115.8031</v>
       </c>
       <c r="I4" s="1">
-        <v>29976.1139</v>
+        <v>262.1726</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8666</v>
+        <v>20377.9756</v>
       </c>
       <c r="K4" s="1">
+        <v>19976.1139</v>
+      </c>
+      <c r="L4" s="1">
+        <v>15.9272</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.2</v>
       </c>
-      <c r="L4" s="1">
-        <v>225.7581</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-10012.5284</v>
+        <v>116.9522</v>
       </c>
       <c r="O4" s="1">
-        <v>249.6442</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30550.6442</v>
+        <v>-10121.3343</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0062</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.3453</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1889.2547</v>
       </c>
       <c r="F5" s="1">
         <v>463.878</v>
       </c>
       <c r="G5" s="1">
-        <v>2353.1327</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>32599.6562</v>
       </c>
       <c r="I5" s="1">
-        <v>38022.2168</v>
+        <v>140.8383</v>
       </c>
       <c r="J5" s="1">
-        <v>16.1581</v>
+        <v>32740.4945</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28022.2168</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.8324</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8046.1029</v>
       </c>
-      <c r="O5" s="1">
-        <v>2203.5414</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42807.5514</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0557</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.8769</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2353.1327</v>
       </c>
       <c r="F6" s="1">
         <v>515.1464999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>2868.2792</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41848.5819</v>
       </c>
       <c r="I6" s="1">
-        <v>47231.4391</v>
+        <v>2094.7354</v>
       </c>
       <c r="J6" s="1">
-        <v>16.4668</v>
+        <v>43943.3173</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37231.4391</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.8221</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9209.222299999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>2994.319</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54004.3691</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0227</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.8772</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2868.2792</v>
       </c>
       <c r="F7" s="1">
         <v>590.9213</v>
       </c>
       <c r="G7" s="1">
-        <v>3459.2005</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>51010.9106</v>
       </c>
       <c r="I7" s="1">
-        <v>57795.4575</v>
+        <v>2885.5131</v>
       </c>
       <c r="J7" s="1">
-        <v>16.7078</v>
+        <v>53896.4237</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47795.4575</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.6635</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10564.0184</v>
       </c>
-      <c r="O7" s="1">
-        <v>2430.3006</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63950.4512</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0008</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>18.1874</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3459.2005</v>
       </c>
       <c r="F8" s="1">
         <v>527.698</v>
       </c>
       <c r="G8" s="1">
-        <v>3986.8984</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>62587.6599</v>
       </c>
       <c r="I8" s="1">
-        <v>67392.9117</v>
+        <v>2321.4947</v>
       </c>
       <c r="J8" s="1">
-        <v>16.9036</v>
+        <v>64909.1546</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57392.9117</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.5914</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9597.4542</v>
       </c>
-      <c r="O8" s="1">
-        <v>2832.8465</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74968.1986</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0138</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.6132</v>
       </c>
       <c r="E9" s="1">
+        <v>3986.8984</v>
+      </c>
+      <c r="F9" s="1">
+        <v>722.415</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>728.5925999999999</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4715.491</v>
-      </c>
       <c r="H9" s="1">
-        <v>82623.8901</v>
+        <v>69857.637</v>
       </c>
       <c r="I9" s="1">
-        <v>80225.75810000001</v>
+        <v>2724.0405</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0132</v>
+        <v>72581.6776</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70116.9522</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.5868</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-12832.8465</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82623.8901</v>
+        <v>-12724.0405</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0276</v>
+        <v>-0.0311</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.806</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4709.3135</v>
       </c>
       <c r="F10" s="1">
         <v>561.6084</v>
       </c>
       <c r="G10" s="1">
-        <v>5277.0994</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93476.9564</v>
+        <v>83419.3661</v>
       </c>
       <c r="I10" s="1">
-        <v>90225.75810000001</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.0976</v>
+        <v>83419.3661</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80116.9522</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.0124</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93476.9564</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0092</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>18.3524</v>
       </c>
       <c r="E11" s="1">
+        <v>5270.9219</v>
+      </c>
+      <c r="F11" s="1">
+        <v>459.5365</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>453.359</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5730.4584</v>
-      </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>96232.2757</v>
       </c>
       <c r="I11" s="1">
-        <v>98545.9834</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.1969</v>
+        <v>96232.2757</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88550.54979999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.7998</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-8320.2253</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1679.7747</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106301.9002</v>
+        <v>-8433.597599999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0273</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.7873</v>
       </c>
       <c r="E12" s="1">
+        <v>5730.4584</v>
+      </c>
+      <c r="F12" s="1">
+        <v>650.2618</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>656.6356</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6387.094</v>
-      </c>
       <c r="H12" s="1">
-        <v>113020.2677</v>
+        <v>101401.0347</v>
       </c>
       <c r="I12" s="1">
-        <v>110225.7581</v>
+        <v>1566.4024</v>
       </c>
       <c r="J12" s="1">
-        <v>17.2576</v>
+        <v>102967.4371</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100116.9522</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.471</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-11679.7747</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>113020.2677</v>
+        <v>-11566.4024</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0282</v>
+        <v>-0.0307</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>18.1269</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6380.7203</v>
       </c>
       <c r="F13" s="1">
         <v>551.6663</v>
       </c>
       <c r="G13" s="1">
-        <v>6938.7603</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>125125.9714</v>
+        <v>115062.8903</v>
       </c>
       <c r="I13" s="1">
-        <v>120225.7581</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3267</v>
+        <v>115062.8903</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110116.9522</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.2578</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>125125.9714</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0171</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>17.8817</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6932.3866</v>
       </c>
       <c r="F14" s="1">
-        <v>-6938.7603</v>
+        <v>-6932.3866</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123320.2246</v>
       </c>
       <c r="I14" s="1">
-        <v>120225.7581</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3267</v>
+        <v>123320.2246</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110116.9522</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.8844</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>123433.6078</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>123433.6078</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123433.6078</v>
+        <v>123320.2246</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.08649999999999999</v>
+        <v>-0.0139</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.3909</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>649.7346</v>
       </c>
       <c r="G2" s="1">
-        <v>649.7346</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1512</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.3909</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1512</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>16.1095</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>649.7346</v>
       </c>
       <c r="F3" s="1">
         <v>607.5973</v>
       </c>
       <c r="G3" s="1">
-        <v>1257.3318</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10412.6464</v>
       </c>
       <c r="I3" s="1">
-        <v>19788.0879</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.7382</v>
+        <v>10412.6464</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9788.0879</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.0647</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9788.0879</v>
       </c>
-      <c r="O3" s="1">
-        <v>211.9121</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20361.9121</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0207</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>16.1222</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1257.3318</v>
       </c>
       <c r="F4" s="1">
         <v>633.4069</v>
       </c>
       <c r="G4" s="1">
-        <v>1890.7387</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30324.8016</v>
+        <v>20165.8424</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>211.9121</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8668</v>
+        <v>20377.7544</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>15.9067</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.2</v>
       </c>
-      <c r="L4" s="1">
-        <v>226.3197</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9985.5923</v>
+        <v>116.9522</v>
       </c>
       <c r="O4" s="1">
-        <v>226.3197</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30551.1214</v>
+        <v>-10094.9598</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0062</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.3453</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1890.7387</v>
       </c>
       <c r="F5" s="1">
         <v>480.0711</v>
       </c>
       <c r="G5" s="1">
-        <v>2370.8098</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>32625.2634</v>
       </c>
       <c r="I5" s="1">
-        <v>38326.9767</v>
+        <v>116.9522</v>
       </c>
       <c r="J5" s="1">
-        <v>16.1662</v>
+        <v>32742.2156</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28326.9767</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.982</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8326.976699999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>1899.343</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42808.3767</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0557</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.8769</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2370.8098</v>
       </c>
       <c r="F6" s="1">
         <v>526.2938</v>
       </c>
       <c r="G6" s="1">
-        <v>2897.1036</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42162.955</v>
       </c>
       <c r="I6" s="1">
-        <v>47735.4784</v>
+        <v>1789.9755</v>
       </c>
       <c r="J6" s="1">
-        <v>16.477</v>
+        <v>43952.9305</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37735.4784</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.9167</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9408.501700000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>2490.8413</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54013.5106</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0228</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,40 +4025,40 @@
         <v>17.8772</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2897.1036</v>
       </c>
       <c r="F7" s="1">
         <v>605.6943</v>
       </c>
       <c r="G7" s="1">
-        <v>3502.7979</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>51523.5384</v>
       </c>
       <c r="I7" s="1">
-        <v>58563.5972</v>
+        <v>2381.4738</v>
       </c>
       <c r="J7" s="1">
-        <v>16.7191</v>
+        <v>53905.0122</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48563.5972</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.7628</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10828.1188</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1662.7226</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63958.2319</v>
       </c>
       <c r="Q7" s="3">
         <v>-0.0009</v>
@@ -4105,43 +4078,43 @@
         <v>18.1874</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3502.7979</v>
       </c>
       <c r="F8" s="1">
         <v>544.5982</v>
       </c>
       <c r="G8" s="1">
-        <v>4047.3961</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>63376.4727</v>
       </c>
       <c r="I8" s="1">
-        <v>68468.42200000001</v>
+        <v>1553.3551</v>
       </c>
       <c r="J8" s="1">
-        <v>16.9167</v>
+        <v>64929.8278</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58468.422</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.6919</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9904.8248</v>
       </c>
-      <c r="O8" s="1">
-        <v>1757.8977</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74987.8397</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0139</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.6132</v>
       </c>
       <c r="E9" s="1">
+        <v>4047.3961</v>
+      </c>
+      <c r="F9" s="1">
+        <v>661.3523</v>
+      </c>
+      <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>667.5617</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4714.9578</v>
-      </c>
       <c r="H9" s="1">
-        <v>82614.5472</v>
+        <v>70917.6646</v>
       </c>
       <c r="I9" s="1">
-        <v>80226.31969999999</v>
+        <v>1648.5302</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0153</v>
+        <v>72566.1948</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70116.9522</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.324</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-11757.8977</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82614.5472</v>
+        <v>-11648.5302</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0279</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.806</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4708.7484</v>
       </c>
       <c r="F10" s="1">
         <v>561.6084</v>
       </c>
       <c r="G10" s="1">
-        <v>5276.5662</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>93467.5111</v>
+        <v>83409.356</v>
       </c>
       <c r="I10" s="1">
-        <v>90226.31969999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.0994</v>
+        <v>83409.356</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80116.9522</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.0145</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93467.5111</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0092</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>18.3524</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5270.3568</v>
       </c>
       <c r="F11" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>5821.4541</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>106283.4515</v>
+        <v>96221.95849999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100226.3197</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.2167</v>
+        <v>96221.95849999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90116.9522</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.0988</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106283.4515</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0272</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.7873</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5815.2447</v>
       </c>
       <c r="F12" s="1">
         <v>562.1989</v>
       </c>
       <c r="G12" s="1">
-        <v>6383.653</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>112959.3774</v>
+        <v>102901.3361</v>
       </c>
       <c r="I12" s="1">
-        <v>110226.3197</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.267</v>
+        <v>102901.3361</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100116.9522</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.2163</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>112959.3774</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0286</v>
+        <v>-0.0313</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>18.1269</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6377.4436</v>
       </c>
       <c r="F13" s="1">
         <v>551.6663</v>
       </c>
       <c r="G13" s="1">
-        <v>6935.3193</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>125063.9188</v>
+        <v>115003.8018</v>
       </c>
       <c r="I13" s="1">
-        <v>120226.3197</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3354</v>
+        <v>115003.8018</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110116.9522</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.2666</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>125063.9188</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0171</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>17.8817</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6929.1099</v>
       </c>
       <c r="F14" s="1">
-        <v>-6935.3193</v>
+        <v>-6929.1099</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123261.9353</v>
       </c>
       <c r="I14" s="1">
-        <v>120226.3197</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3354</v>
+        <v>123261.9353</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110116.9522</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.8919</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>123372.3944</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>123372.3944</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123372.3944</v>
+        <v>123261.9353</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0866</v>
+        <v>-0.0139</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4451,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.8335</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.3321</v>
+        <v>15.8887</v>
       </c>
       <c r="D3" s="1">
-        <v>17.3002</v>
+        <v>15.7975</v>
       </c>
       <c r="E3" s="1">
-        <v>17.3147</v>
+        <v>15.8528</v>
       </c>
       <c r="F3" s="1">
-        <v>17.3267</v>
+        <v>15.8844</v>
       </c>
       <c r="G3" s="1">
-        <v>17.3354</v>
+        <v>15.8919</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1562</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0296</v>
+        <v>0.1439</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0292</v>
+        <v>0.1431</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0295</v>
+        <v>0.1435</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0295</v>
+        <v>0.1435</v>
       </c>
       <c r="G4" s="3">
-        <v>0.029</v>
+        <v>0.1431</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1034</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1203</v>
+        <v>0.1037</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1184</v>
+        <v>0.1008</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1192</v>
+        <v>0.1018</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1199</v>
+        <v>0.1027</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1201</v>
+        <v>0.1032</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.3137</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0775</v>
+        <v>1.192</v>
       </c>
       <c r="D6" s="4">
-        <v>0.0752</v>
+        <v>1.2179</v>
       </c>
       <c r="E6" s="4">
-        <v>0.077</v>
+        <v>1.2103</v>
       </c>
       <c r="F6" s="4">
-        <v>0.0765</v>
+        <v>1.2001</v>
       </c>
       <c r="G6" s="4">
-        <v>0.0721</v>
+        <v>1.1898</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0528</v>
+        <v>-0.09909999999999999</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0566</v>
+        <v>0.0548</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0554</v>
+        <v>0.0536</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0541</v>
+        <v>0.0523</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0529</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>228.6875</v>
+        <v>116.9522</v>
       </c>
       <c r="D8" s="1">
-        <v>224.635</v>
+        <v>116.9522</v>
       </c>
       <c r="E8" s="1">
-        <v>225.1966</v>
+        <v>116.9522</v>
       </c>
       <c r="F8" s="1">
-        <v>225.7581</v>
+        <v>116.9522</v>
       </c>
       <c r="G8" s="1">
-        <v>226.3197</v>
+        <v>116.9522</v>
       </c>
     </row>
   </sheetData>
